--- a/final/weekly_poll_winner.xlsx
+++ b/final/weekly_poll_winner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meInspiron\Desktop\ipl_polls\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FDF9E7-0653-412F-AA5D-0F5F1B96BB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600AD7F1-FEE3-4EBE-99C0-04DA594A979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33315BC7-FE13-4B47-AD11-5FFBB64D564A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Week3!$B$5:$Z$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Week4!$B$5:$Z$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Week5!$B$5:$X$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Week6!$B$5:$X$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Week6!$B$5:$X$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="344">
   <si>
     <t>Username</t>
   </si>
@@ -1051,6 +1051,36 @@
   </si>
   <si>
     <t>Predict the Winner - Week 6: 28th April to 4th May</t>
+  </si>
+  <si>
+    <t>HungrY WolF</t>
+  </si>
+  <si>
+    <t>BILLUDA</t>
+  </si>
+  <si>
+    <t>_yoichi_</t>
+  </si>
+  <si>
+    <t>yoichi</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>joe_._mama</t>
+  </si>
+  <si>
+    <t>joe mama</t>
+  </si>
+  <si>
+    <t>msvvamsi</t>
+  </si>
+  <si>
+    <t>Msv Vamsi</t>
+  </si>
+  <si>
+    <t>psudorandom</t>
   </si>
 </sst>
 </file>
@@ -1613,39 +1643,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1664,6 +1661,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,6 +1686,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1732,113 +1762,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBF3FB"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2167,6 +2090,113 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF3FB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2719,7 +2749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFE4DC2-69BD-48AC-8405-57716A5CFA89}">
-  <dimension ref="B1:X63"/>
+  <dimension ref="B1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2751,1741 +2781,3485 @@
   <sheetData>
     <row r="1" spans="2:24" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:24" ht="15" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="35" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="35" t="s">
+      <c r="M3" s="51"/>
+      <c r="N3" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="35" t="s">
+      <c r="Q3" s="51"/>
+      <c r="R3" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="35" t="s">
+      <c r="S3" s="51"/>
+      <c r="T3" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="37" t="s">
+      <c r="U3" s="51"/>
+      <c r="V3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="44" t="s">
+      <c r="X3" s="54" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="50"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="40" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="40" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="40" t="s">
+      <c r="M4" s="57"/>
+      <c r="N4" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="40" t="s">
+      <c r="O4" s="57"/>
+      <c r="P4" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="40" t="s">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="40" t="s">
+      <c r="S4" s="57"/>
+      <c r="T4" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="38"/>
-      <c r="X4" s="45"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="42"/>
+      <c r="X4" s="55"/>
     </row>
     <row r="5" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B5" s="51"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="42" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="42" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="39"/>
-      <c r="X5" s="45"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="53"/>
+      <c r="N5" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="53"/>
+      <c r="P5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="53"/>
+      <c r="T5" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" s="53"/>
+      <c r="V5" s="43"/>
+      <c r="X5" s="55"/>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="27"/>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="24">
+        <v>1</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="24">
+        <v>1</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="24">
+        <v>1</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>1</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="24">
+        <v>2</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" s="24">
+        <v>2</v>
+      </c>
+      <c r="V6" s="27">
+        <v>8</v>
+      </c>
       <c r="X6" s="20">
-        <f t="shared" ref="X6:X60" si="0">COUNTIF(F6:U6,"---")</f>
+        <f t="shared" ref="X6:X51" si="0">COUNTIF(F6:U6,"---")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:24">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="28"/>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="3">
+        <v>2</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U7" s="3">
+        <v>2</v>
+      </c>
+      <c r="V7" s="28">
+        <v>8</v>
+      </c>
       <c r="X7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:24">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="28"/>
+      <c r="B8" s="33">
+        <v>1</v>
+      </c>
+      <c r="C8" s="33">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2</v>
+      </c>
+      <c r="V8" s="28">
+        <v>8</v>
+      </c>
       <c r="X8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:24">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="28"/>
+      <c r="B9" s="33">
+        <v>1</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2</v>
+      </c>
+      <c r="V9" s="28">
+        <v>8</v>
+      </c>
       <c r="X9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:24">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="28"/>
+      <c r="B10" s="33">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="3">
+        <v>2</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2</v>
+      </c>
+      <c r="V10" s="28">
+        <v>8</v>
+      </c>
       <c r="X10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:24">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="28"/>
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="33">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="3">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U11" s="3">
+        <v>2</v>
+      </c>
+      <c r="V11" s="28">
+        <v>8</v>
+      </c>
       <c r="X11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="28"/>
+      <c r="B12" s="33">
+        <v>1</v>
+      </c>
+      <c r="C12" s="33">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="3">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U12" s="3">
+        <v>2</v>
+      </c>
+      <c r="V12" s="28">
+        <v>8</v>
+      </c>
       <c r="X12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:24">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="33">
+        <v>1</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="28"/>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="3">
+        <v>2</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U13" s="3">
+        <v>2</v>
+      </c>
+      <c r="V13" s="28">
+        <v>8</v>
+      </c>
       <c r="X13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:24">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="28"/>
+      <c r="B14" s="33">
+        <v>2</v>
+      </c>
+      <c r="C14" s="33">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U14" s="3">
+        <v>2</v>
+      </c>
+      <c r="V14" s="28">
+        <v>7</v>
+      </c>
       <c r="X14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:24">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="28"/>
+      <c r="B15" s="33">
+        <v>2</v>
+      </c>
+      <c r="C15" s="33">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="3">
+        <v>2</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U15" s="3">
+        <v>2</v>
+      </c>
+      <c r="V15" s="28">
+        <v>7</v>
+      </c>
       <c r="X15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:24">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="28"/>
+      <c r="B16" s="33">
+        <v>2</v>
+      </c>
+      <c r="C16" s="33">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="3">
+        <v>2</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="28">
+        <v>7</v>
+      </c>
       <c r="X16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:24">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="28"/>
+      <c r="B17" s="33">
+        <v>2</v>
+      </c>
+      <c r="C17" s="33">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U17" s="3">
+        <v>2</v>
+      </c>
+      <c r="V17" s="28">
+        <v>7</v>
+      </c>
       <c r="X17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:24">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="28"/>
+      <c r="B18" s="33">
+        <v>2</v>
+      </c>
+      <c r="C18" s="33">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="3">
+        <v>2</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U18" s="3">
+        <v>2</v>
+      </c>
+      <c r="V18" s="28">
+        <v>7</v>
+      </c>
       <c r="X18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:24">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="28"/>
+      <c r="B19" s="33">
+        <v>3</v>
+      </c>
+      <c r="C19" s="33">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" s="3">
+        <v>2</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="28">
+        <v>6</v>
+      </c>
       <c r="X19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:24">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="28"/>
+      <c r="B20" s="33">
+        <v>3</v>
+      </c>
+      <c r="C20" s="33">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" s="3">
+        <v>2</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U20" s="3">
+        <v>2</v>
+      </c>
+      <c r="V20" s="28">
+        <v>6</v>
+      </c>
       <c r="X20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:24">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="28"/>
+      <c r="B21" s="33">
+        <v>3</v>
+      </c>
+      <c r="C21" s="33">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" s="3">
+        <v>2</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="28">
+        <v>6</v>
+      </c>
       <c r="X21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="28"/>
+      <c r="B22" s="33">
+        <v>3</v>
+      </c>
+      <c r="C22" s="33">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U22" s="3">
+        <v>2</v>
+      </c>
+      <c r="V22" s="28">
+        <v>6</v>
+      </c>
       <c r="X22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:24">
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="28"/>
+      <c r="B23" s="33">
+        <v>3</v>
+      </c>
+      <c r="C23" s="33">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" s="3">
+        <v>2</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="28">
+        <v>6</v>
+      </c>
       <c r="X23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:24">
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="28"/>
+      <c r="B24" s="33">
+        <v>3</v>
+      </c>
+      <c r="C24" s="33">
+        <v>14</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U24" s="3">
+        <v>2</v>
+      </c>
+      <c r="V24" s="28">
+        <v>6</v>
+      </c>
       <c r="X24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:24">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="28"/>
+      <c r="B25" s="33">
+        <v>3</v>
+      </c>
+      <c r="C25" s="33">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S25" s="3">
+        <v>2</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U25" s="3">
+        <v>2</v>
+      </c>
+      <c r="V25" s="28">
+        <v>6</v>
+      </c>
       <c r="X25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:24">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="28"/>
+      <c r="B26" s="33">
+        <v>4</v>
+      </c>
+      <c r="C26" s="33">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U26" s="3">
+        <v>2</v>
+      </c>
+      <c r="V26" s="28">
+        <v>5</v>
+      </c>
       <c r="X26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:24">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="28"/>
+      <c r="B27" s="33">
+        <v>4</v>
+      </c>
+      <c r="C27" s="33">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S27" s="3">
+        <v>2</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="28">
+        <v>5</v>
+      </c>
       <c r="X27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:24">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="28"/>
+      <c r="B28" s="33">
+        <v>4</v>
+      </c>
+      <c r="C28" s="33">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="3">
+        <v>2</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U28" s="3">
+        <v>2</v>
+      </c>
+      <c r="V28" s="28">
+        <v>5</v>
+      </c>
       <c r="X28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:24">
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="28"/>
+      <c r="B29" s="33">
+        <v>4</v>
+      </c>
+      <c r="C29" s="33">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U29" s="3">
+        <v>2</v>
+      </c>
+      <c r="V29" s="28">
+        <v>5</v>
+      </c>
       <c r="X29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:24">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="28"/>
+      <c r="B30" s="33">
+        <v>5</v>
+      </c>
+      <c r="C30" s="33">
+        <v>25</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S30" s="3">
+        <v>2</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="28">
+        <v>4</v>
+      </c>
       <c r="X30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:24">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="28"/>
+      <c r="B31" s="33">
+        <v>5</v>
+      </c>
+      <c r="C31" s="33">
+        <v>25</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U31" s="3">
+        <v>2</v>
+      </c>
+      <c r="V31" s="28">
+        <v>4</v>
+      </c>
       <c r="X31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="28"/>
+      <c r="B32" s="33">
+        <v>5</v>
+      </c>
+      <c r="C32" s="33">
+        <v>25</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="28">
+        <v>4</v>
+      </c>
       <c r="X32" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:24">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="28"/>
+      <c r="B33" s="33">
+        <v>6</v>
+      </c>
+      <c r="C33" s="33">
+        <v>28</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U33" s="3">
+        <v>2</v>
+      </c>
+      <c r="V33" s="28">
+        <v>3</v>
+      </c>
       <c r="X33" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:24">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="28"/>
+      <c r="B34" s="33">
+        <v>7</v>
+      </c>
+      <c r="C34" s="33">
+        <v>29</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="28">
+        <v>2</v>
+      </c>
       <c r="X34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:24">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="28"/>
+      <c r="B35" s="33">
+        <v>7</v>
+      </c>
+      <c r="C35" s="33">
+        <v>29</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S35" s="3">
+        <v>2</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="28">
+        <v>2</v>
+      </c>
       <c r="X35" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:24">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="28"/>
+      <c r="B36" s="33">
+        <v>7</v>
+      </c>
+      <c r="C36" s="33">
+        <v>29</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>1</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0</v>
+      </c>
+      <c r="V36" s="28">
+        <v>2</v>
+      </c>
       <c r="X36" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:24">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="28"/>
+      <c r="B37" s="33">
+        <v>7</v>
+      </c>
+      <c r="C37" s="33">
+        <v>29</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U37" s="3">
+        <v>2</v>
+      </c>
+      <c r="V37" s="28">
+        <v>2</v>
+      </c>
       <c r="X37" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:24">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="28"/>
+      <c r="B38" s="33">
+        <v>7</v>
+      </c>
+      <c r="C38" s="33">
+        <v>29</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S38" s="3">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0</v>
+      </c>
+      <c r="V38" s="28">
+        <v>2</v>
+      </c>
       <c r="X38" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="2:24">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="28"/>
+      <c r="B39" s="33">
+        <v>8</v>
+      </c>
+      <c r="C39" s="33">
+        <v>34</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0</v>
+      </c>
+      <c r="V39" s="28">
+        <v>1</v>
+      </c>
       <c r="X39" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:24">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="28"/>
+      <c r="B40" s="33">
+        <v>8</v>
+      </c>
+      <c r="C40" s="33">
+        <v>34</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>1</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U40" s="3">
+        <v>0</v>
+      </c>
+      <c r="V40" s="28">
+        <v>1</v>
+      </c>
       <c r="X40" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="2:24">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="28"/>
+      <c r="B41" s="33">
+        <v>8</v>
+      </c>
+      <c r="C41" s="33">
+        <v>34</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="28">
+        <v>1</v>
+      </c>
       <c r="X41" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="2:24">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="28"/>
+      <c r="B42" s="33">
+        <v>8</v>
+      </c>
+      <c r="C42" s="33">
+        <v>34</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="28">
+        <v>1</v>
+      </c>
       <c r="X42" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:24">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="33">
+        <v>8</v>
+      </c>
+      <c r="C43" s="33">
+        <v>34</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="E43" s="11"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="28"/>
+      <c r="F43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="28">
+        <v>1</v>
+      </c>
       <c r="X43" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:24">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="28"/>
+      <c r="B44" s="33">
+        <v>8</v>
+      </c>
+      <c r="C44" s="33">
+        <v>34</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="28">
+        <v>1</v>
+      </c>
       <c r="X44" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="2:24">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="28"/>
+      <c r="B45" s="33">
+        <v>8</v>
+      </c>
+      <c r="C45" s="33">
+        <v>34</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="28">
+        <v>1</v>
+      </c>
       <c r="X45" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="2:24">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="33">
+        <v>8</v>
+      </c>
+      <c r="C46" s="33">
+        <v>34</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="E46" s="11"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="28"/>
+      <c r="F46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="28">
+        <v>1</v>
+      </c>
       <c r="X46" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:24">
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="28"/>
+      <c r="B47" s="33">
+        <v>8</v>
+      </c>
+      <c r="C47" s="33">
+        <v>34</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>1</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="28">
+        <v>1</v>
+      </c>
       <c r="X47" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:24">
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="28"/>
+      <c r="B48" s="33">
+        <v>8</v>
+      </c>
+      <c r="C48" s="33">
+        <v>34</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="28">
+        <v>1</v>
+      </c>
       <c r="X48" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:24">
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="28"/>
+      <c r="B49" s="33">
+        <v>9</v>
+      </c>
+      <c r="C49" s="33">
+        <v>44</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="28">
+        <v>0</v>
+      </c>
       <c r="X49" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="2:24">
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="28"/>
+      <c r="B50" s="33">
+        <v>9</v>
+      </c>
+      <c r="C50" s="33">
+        <v>44</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="28">
+        <v>0</v>
+      </c>
       <c r="X50" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="2:24">
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="28"/>
+      <c r="B51" s="33">
+        <v>9</v>
+      </c>
+      <c r="C51" s="33">
+        <v>44</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="28">
+        <v>0</v>
+      </c>
       <c r="X51" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="2:24">
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="28"/>
+      <c r="B52" s="33">
+        <v>9</v>
+      </c>
+      <c r="C52" s="33">
+        <v>44</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="28">
+        <v>0</v>
+      </c>
       <c r="X52" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24">
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="28"/>
+        <f>COUNTIF(F52:U52,"---")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" ht="15.75" thickBot="1">
+      <c r="B53" s="34">
+        <v>9</v>
+      </c>
+      <c r="C53" s="34">
+        <v>44</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>0</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="S53" s="5">
+        <v>0</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="U53" s="5">
+        <v>0</v>
+      </c>
+      <c r="V53" s="29">
+        <v>0</v>
+      </c>
       <c r="X53" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24">
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="28"/>
-      <c r="X54" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24">
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="28"/>
-      <c r="X55" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24">
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="28"/>
-      <c r="X56" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24">
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="28"/>
-      <c r="X57" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24">
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="28"/>
-      <c r="X58" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24">
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="28"/>
-      <c r="X59" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24">
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="28"/>
-      <c r="X60" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24">
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="28"/>
-      <c r="X61" s="20">
-        <f t="shared" ref="X61" si="1">COUNTIF(F63:U63,"---")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24">
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="28"/>
-      <c r="X62" s="20">
-        <f>COUNTIF(F64:U64,"---")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="29"/>
-      <c r="X63" s="20">
-        <f>COUNTIF(F65:U65,"---")</f>
+        <f>COUNTIF(F55:U55,"---")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:V5"/>
     <mergeCell ref="X3:X5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
     <mergeCell ref="B2:V2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -4496,57 +6270,63 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:E63 V6:V63">
-    <cfRule type="expression" dxfId="10" priority="11">
+  <conditionalFormatting sqref="B6:E53 V6:V53">
+    <cfRule type="expression" dxfId="66" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
       <formula>$F$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576 U1:U1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
       <formula>$L$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
       <formula>$N$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
       <formula>$R$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4588,161 +6368,161 @@
   <sheetData>
     <row r="1" spans="2:24" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:24" ht="15" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="35" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="35" t="s">
+      <c r="M3" s="51"/>
+      <c r="N3" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="35" t="s">
+      <c r="Q3" s="51"/>
+      <c r="R3" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="35" t="s">
+      <c r="S3" s="51"/>
+      <c r="T3" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="37" t="s">
+      <c r="U3" s="51"/>
+      <c r="V3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="44" t="s">
+      <c r="X3" s="54" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="50"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="40" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="40" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="40" t="s">
+      <c r="M4" s="57"/>
+      <c r="N4" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="40" t="s">
+      <c r="O4" s="57"/>
+      <c r="P4" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="40" t="s">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="40" t="s">
+      <c r="S4" s="57"/>
+      <c r="T4" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="38"/>
-      <c r="X4" s="45"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="42"/>
+      <c r="X4" s="55"/>
     </row>
     <row r="5" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B5" s="51"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="42" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="42" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="42" t="s">
+      <c r="K5" s="53"/>
+      <c r="L5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="42" t="s">
+      <c r="M5" s="53"/>
+      <c r="N5" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="42" t="s">
+      <c r="O5" s="53"/>
+      <c r="P5" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="42" t="s">
+      <c r="Q5" s="53"/>
+      <c r="R5" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="S5" s="43"/>
-      <c r="T5" s="42" t="s">
+      <c r="S5" s="53"/>
+      <c r="T5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="43"/>
-      <c r="V5" s="39"/>
-      <c r="X5" s="45"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="43"/>
+      <c r="X5" s="55"/>
     </row>
     <row r="6" spans="2:24">
       <c r="B6" s="32">
@@ -8775,55 +10555,55 @@
     <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:E63 V6:V63">
-    <cfRule type="expression" dxfId="66" priority="12">
+    <cfRule type="expression" dxfId="55" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
       <formula>$F$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576 U1:U1048576">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="61" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
       <formula>$L$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="59" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
       <formula>$N$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
       <formula>$R$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8872,175 +10652,175 @@
   <sheetData>
     <row r="1" spans="2:26" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="48"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="37"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="35" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="35" t="s">
+      <c r="M3" s="51"/>
+      <c r="N3" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="35" t="s">
+      <c r="Q3" s="51"/>
+      <c r="R3" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="35" t="s">
+      <c r="S3" s="51"/>
+      <c r="T3" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="35" t="s">
+      <c r="U3" s="51"/>
+      <c r="V3" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="37" t="s">
+      <c r="W3" s="51"/>
+      <c r="X3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="44" t="s">
+      <c r="Z3" s="54" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:26">
-      <c r="B4" s="50"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="40" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="40" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="40" t="s">
+      <c r="M4" s="57"/>
+      <c r="N4" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="40" t="s">
+      <c r="O4" s="57"/>
+      <c r="P4" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="40" t="s">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="40" t="s">
+      <c r="S4" s="57"/>
+      <c r="T4" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="40" t="s">
+      <c r="U4" s="57"/>
+      <c r="V4" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="W4" s="41"/>
-      <c r="X4" s="38"/>
-      <c r="Z4" s="45"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="42"/>
+      <c r="Z4" s="55"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B5" s="51"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="42" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="42" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="42" t="s">
+      <c r="K5" s="53"/>
+      <c r="L5" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="42" t="s">
+      <c r="M5" s="53"/>
+      <c r="N5" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="42" t="s">
+      <c r="O5" s="53"/>
+      <c r="P5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="42" t="s">
+      <c r="Q5" s="53"/>
+      <c r="R5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="43"/>
-      <c r="T5" s="42" t="s">
+      <c r="S5" s="53"/>
+      <c r="T5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="43"/>
-      <c r="V5" s="42" t="s">
+      <c r="U5" s="53"/>
+      <c r="V5" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="W5" s="43"/>
-      <c r="X5" s="39"/>
-      <c r="Z5" s="45"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="43"/>
+      <c r="Z5" s="55"/>
     </row>
     <row r="6" spans="2:26">
       <c r="B6" s="32">
@@ -14282,10 +16062,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="X3:X5"/>
     <mergeCell ref="B2:X2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B3:B5"/>
@@ -14298,6 +16074,13 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="Z3:Z5"/>
@@ -14312,66 +16095,63 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="X3:X5"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:E75 X6:X75">
-    <cfRule type="expression" dxfId="55" priority="14">
+    <cfRule type="expression" dxfId="44" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
       <formula>$F$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576 U1:U1048576 W1:W1048576">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="51" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>$L$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
       <formula>$N$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>$R$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14448,104 +16228,104 @@
       <c r="X2" s="62"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="35" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="35" t="s">
+      <c r="M3" s="51"/>
+      <c r="N3" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="35" t="s">
+      <c r="Q3" s="51"/>
+      <c r="R3" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="35" t="s">
+      <c r="S3" s="51"/>
+      <c r="T3" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="35" t="s">
+      <c r="U3" s="51"/>
+      <c r="V3" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="W3" s="36"/>
+      <c r="W3" s="51"/>
       <c r="X3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="44" t="s">
+      <c r="Z3" s="54" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:26" ht="15">
-      <c r="B4" s="53"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="40" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="40" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="40" t="s">
+      <c r="M4" s="57"/>
+      <c r="N4" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="40" t="s">
+      <c r="O4" s="57"/>
+      <c r="P4" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="40" t="s">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="40" t="s">
+      <c r="S4" s="57"/>
+      <c r="T4" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="40" t="s">
+      <c r="U4" s="57"/>
+      <c r="V4" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="W4" s="41"/>
+      <c r="W4" s="57"/>
       <c r="X4" s="64"/>
-      <c r="Z4" s="45"/>
+      <c r="Z4" s="55"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1">
       <c r="B5" s="66"/>
@@ -14591,7 +16371,7 @@
       </c>
       <c r="W5" s="59"/>
       <c r="X5" s="65"/>
-      <c r="Z5" s="45"/>
+      <c r="Z5" s="55"/>
     </row>
     <row r="6" spans="2:26">
       <c r="B6" s="14" t="s">
@@ -18449,65 +20229,65 @@
     <mergeCell ref="L3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:C194 X6:X194">
-    <cfRule type="expression" dxfId="43" priority="46">
+    <cfRule type="expression" dxfId="32" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
       <formula>$D$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576 U1:U1048576 W1:W1048576">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
       <formula>$F$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
       <formula>$L$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
       <formula>$N$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
       <formula>$R$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="37" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="36" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18576,88 +20356,88 @@
       <c r="T2" s="62"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="35" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="35" t="s">
+      <c r="M3" s="51"/>
+      <c r="N3" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="35" t="s">
+      <c r="Q3" s="51"/>
+      <c r="R3" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="36"/>
+      <c r="S3" s="51"/>
       <c r="T3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="44" t="s">
+      <c r="V3" s="54" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="15">
-      <c r="B4" s="53"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="40" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="40" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="40" t="s">
+      <c r="M4" s="57"/>
+      <c r="N4" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="40" t="s">
+      <c r="O4" s="57"/>
+      <c r="P4" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="40" t="s">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="S4" s="41"/>
+      <c r="S4" s="57"/>
       <c r="T4" s="64"/>
-      <c r="V4" s="45"/>
+      <c r="V4" s="55"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1">
       <c r="B5" s="66"/>
@@ -18695,7 +20475,7 @@
       </c>
       <c r="S5" s="59"/>
       <c r="T5" s="65"/>
-      <c r="V5" s="45"/>
+      <c r="V5" s="55"/>
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="14" t="s">
@@ -22065,55 +23845,55 @@
     <mergeCell ref="L4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:C196 T6:T196">
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>$D$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>$F$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>$L$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>$N$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>$R$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22174,72 +23954,72 @@
       <c r="P2" s="72"/>
     </row>
     <row r="3" spans="2:18" ht="15">
-      <c r="B3" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="35" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="35" t="s">
+      <c r="M3" s="51"/>
+      <c r="N3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="36"/>
+      <c r="O3" s="51"/>
       <c r="P3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="54" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15">
-      <c r="B4" s="53"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="40" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="40" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="40" t="s">
+      <c r="M4" s="57"/>
+      <c r="N4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="41"/>
+      <c r="O4" s="57"/>
       <c r="P4" s="68"/>
-      <c r="R4" s="45"/>
+      <c r="R4" s="55"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1">
       <c r="B5" s="66"/>
@@ -22269,7 +24049,7 @@
       </c>
       <c r="O5" s="59"/>
       <c r="P5" s="69"/>
-      <c r="R5" s="45"/>
+      <c r="R5" s="55"/>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="14" t="s">
@@ -25259,45 +27039,45 @@
     <mergeCell ref="N5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:C200 P6:P200">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>$D$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>$F$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>$L$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>$N$5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/final/weekly_poll_winner.xlsx
+++ b/final/weekly_poll_winner.xlsx
@@ -1,32 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meInspiron\Desktop\ipl_polls\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600AD7F1-FEE3-4EBE-99C0-04DA594A979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00838442-080E-425E-A01F-C4112C3E7C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33315BC7-FE13-4B47-AD11-5FFBB64D564A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Week6" sheetId="8" r:id="rId1"/>
-    <sheet name="Week5" sheetId="7" r:id="rId2"/>
-    <sheet name="Week4" sheetId="5" r:id="rId3"/>
-    <sheet name="Week3" sheetId="4" r:id="rId4"/>
-    <sheet name="Week2" sheetId="2" r:id="rId5"/>
-    <sheet name="Week1" sheetId="1" r:id="rId6"/>
+    <sheet name="Week8" sheetId="10" r:id="rId1"/>
+    <sheet name="Week7" sheetId="9" r:id="rId2"/>
+    <sheet name="Week6" sheetId="8" r:id="rId3"/>
+    <sheet name="Week5" sheetId="7" r:id="rId4"/>
+    <sheet name="Week4" sheetId="5" r:id="rId5"/>
+    <sheet name="Week3" sheetId="4" r:id="rId6"/>
+    <sheet name="Week2" sheetId="2" r:id="rId7"/>
+    <sheet name="Week1" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Week1!$D$5:$O$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Week2!$B$5:$V$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Week3!$B$5:$Z$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Week4!$B$5:$Z$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Week5!$B$5:$X$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Week6!$B$5:$X$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Week1!$D$5:$O$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Week2!$B$5:$V$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Week3!$B$5:$Z$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Week4!$B$5:$Z$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Week5!$B$5:$X$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Week6!$B$5:$X$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Week7!$B$5:$T$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Week8!$B$5:$AB$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3999" uniqueCount="383">
   <si>
     <t>Username</t>
   </si>
@@ -1081,6 +1085,123 @@
   </si>
   <si>
     <t>psudorandom</t>
+  </si>
+  <si>
+    <t>Match #55</t>
+  </si>
+  <si>
+    <t>Match #56</t>
+  </si>
+  <si>
+    <t>Match #57</t>
+  </si>
+  <si>
+    <t>Match #58</t>
+  </si>
+  <si>
+    <t>Match #59</t>
+  </si>
+  <si>
+    <t>Match #60</t>
+  </si>
+  <si>
+    <t>Match #61</t>
+  </si>
+  <si>
+    <t>Match #62</t>
+  </si>
+  <si>
+    <t>DC vs GT</t>
+  </si>
+  <si>
+    <t>MI vs GT</t>
+  </si>
+  <si>
+    <t>KKR vs CSK</t>
+  </si>
+  <si>
+    <t>Match #63</t>
+  </si>
+  <si>
+    <t>Match #64</t>
+  </si>
+  <si>
+    <t>Match #65</t>
+  </si>
+  <si>
+    <t>Match #66</t>
+  </si>
+  <si>
+    <t>Match #67</t>
+  </si>
+  <si>
+    <t>Match #68</t>
+  </si>
+  <si>
+    <t>RCB vs KKR</t>
+  </si>
+  <si>
+    <t>LSG vs SRH</t>
+  </si>
+  <si>
+    <t>CSK vs RR</t>
+  </si>
+  <si>
+    <t>MI vs DC</t>
+  </si>
+  <si>
+    <t>GT vs LSG</t>
+  </si>
+  <si>
+    <t>RCB vs SRH</t>
+  </si>
+  <si>
+    <t>DC vs PBKS</t>
+  </si>
+  <si>
+    <t>GT vs CSK</t>
+  </si>
+  <si>
+    <t>Predict the Winner - Week 8: 19th May to 25th May</t>
+  </si>
+  <si>
+    <t>Predict the Winner - Week 7: 5th May to 7th May, 17th May to 18th May</t>
+  </si>
+  <si>
+    <t>Jason Duval</t>
+  </si>
+  <si>
+    <t>Beluga</t>
+  </si>
+  <si>
+    <t>dhanda_</t>
+  </si>
+  <si>
+    <t>Hank Schrader</t>
+  </si>
+  <si>
+    <t>indianduder</t>
+  </si>
+  <si>
+    <t>boring-life</t>
+  </si>
+  <si>
+    <t>vinnu7980</t>
+  </si>
+  <si>
+    <t>Vinnu</t>
+  </si>
+  <si>
+    <t>Match #69</t>
+  </si>
+  <si>
+    <t>Match #70</t>
+  </si>
+  <si>
+    <t>MI vs PBKS</t>
+  </si>
+  <si>
+    <t>LSG vs RCB</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1551,11 +1672,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1643,10 +1777,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,12 +1855,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,6 +1879,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1761,47 +1904,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="37">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1851,11 +1954,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1880,42 +1983,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFEBF3FB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1958,11 +2028,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1987,62 +2057,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFEBF3FB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2085,11 +2102,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2114,52 +2131,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFEBF3FB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2202,76 +2176,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2292,6 +2196,8 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2304,76 +2210,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFEBF3FB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2748,10 +2584,4484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D555B41-9B33-4ED1-94BB-DB6533C7ABCC}">
+  <dimension ref="B1:AB53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
+    <col min="2" max="3" width="11.375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.75" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28" ht="5.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B2" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="40"/>
+    </row>
+    <row r="3" spans="2:28" ht="15" customHeight="1">
+      <c r="B3" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" s="54"/>
+      <c r="H3" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="L3" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="O3" s="54"/>
+      <c r="P3" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="S3" s="54"/>
+      <c r="T3" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="U3" s="54"/>
+      <c r="V3" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="W3" s="54"/>
+      <c r="X3" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28">
+      <c r="B4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="M4" s="60"/>
+      <c r="N4" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="O4" s="60"/>
+      <c r="P4" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="S4" s="60"/>
+      <c r="T4" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="U4" s="60"/>
+      <c r="V4" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="W4" s="60"/>
+      <c r="X4" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="45"/>
+      <c r="AB4" s="58"/>
+    </row>
+    <row r="5" spans="2:28" ht="15.75" thickBot="1">
+      <c r="B5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="56"/>
+      <c r="N5" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="56"/>
+      <c r="P5" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="46"/>
+      <c r="AB5" s="58"/>
+    </row>
+    <row r="6" spans="2:28">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="27"/>
+      <c r="AB6" s="20">
+        <f t="shared" ref="AB6:AB52" si="0">COUNTIF(F6:I6,"---")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="28"/>
+      <c r="AB7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="28"/>
+      <c r="AB8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="28"/>
+      <c r="AB9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="28"/>
+      <c r="AB10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="28"/>
+      <c r="AB11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="28"/>
+      <c r="AB12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="28"/>
+      <c r="AB13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="28"/>
+      <c r="AB14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="28"/>
+      <c r="AB15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="28"/>
+      <c r="AB16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="28"/>
+      <c r="AB17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="28"/>
+      <c r="AB18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="28"/>
+      <c r="AB19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="28"/>
+      <c r="AB20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="28"/>
+      <c r="AB21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="28"/>
+      <c r="AB22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="28"/>
+      <c r="AB23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="28"/>
+      <c r="AB24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="28"/>
+      <c r="AB25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="28"/>
+      <c r="AB26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="28"/>
+      <c r="AB27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="28"/>
+      <c r="AB28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="28"/>
+      <c r="AB29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="28"/>
+      <c r="AB30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="28"/>
+      <c r="AB31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="28"/>
+      <c r="AB32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="28"/>
+      <c r="AB33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="28"/>
+      <c r="AB34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="28"/>
+      <c r="AB35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="28"/>
+      <c r="AB36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="28"/>
+      <c r="AB37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="28"/>
+      <c r="AB38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="28"/>
+      <c r="AB39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="28"/>
+      <c r="AB40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="28"/>
+      <c r="AB41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="28"/>
+      <c r="AB42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="28"/>
+      <c r="AB43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="28"/>
+      <c r="AB44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="28"/>
+      <c r="AB45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="28"/>
+      <c r="AB46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28">
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="28"/>
+      <c r="AB47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28">
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="28"/>
+      <c r="AB48" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28">
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="28"/>
+      <c r="AB49" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28">
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="28"/>
+      <c r="AB50" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28">
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="28"/>
+      <c r="AB51" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28">
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="28"/>
+      <c r="AB52" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" ht="15.75" thickBot="1">
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="29"/>
+      <c r="AB53" s="20">
+        <f>COUNTIF(F55:I55,"---")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="V3:W3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6:E100 Z6:Z100">
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576 R1:R1048576 T1:T1048576 V1:V1048576 X1:X1048576">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>F1=INDIRECT(ADDRESS(5,COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576 U1:U1048576 W1:W1048576 Y1:Y1048576">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95EA73F-574E-4D49-8426-6A861AC599BD}">
+  <dimension ref="B1:T49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="0.625" customWidth="1"/>
+    <col min="2" max="3" width="11.375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="5.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B2" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="40"/>
+    </row>
+    <row r="3" spans="2:20" ht="15" customHeight="1">
+      <c r="B3" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="54"/>
+      <c r="H3" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="L3" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="O3" s="54"/>
+      <c r="P3" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="M4" s="60"/>
+      <c r="N4" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="O4" s="60"/>
+      <c r="P4" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="45"/>
+      <c r="T4" s="58"/>
+    </row>
+    <row r="5" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="M5" s="56"/>
+      <c r="N5" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" s="56"/>
+      <c r="P5" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="46"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="35">
+        <v>1</v>
+      </c>
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="17">
+        <v>2</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>2</v>
+      </c>
+      <c r="R6" s="36">
+        <v>5</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" ref="T6:T49" si="0">COUNTIF(F6:Q6,"---")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O7" s="3">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>2</v>
+      </c>
+      <c r="R7" s="28">
+        <v>5</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="33">
+        <v>1</v>
+      </c>
+      <c r="C8" s="33">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2</v>
+      </c>
+      <c r="R8" s="28">
+        <v>5</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="33">
+        <v>1</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2</v>
+      </c>
+      <c r="R9" s="28">
+        <v>5</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="33">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2</v>
+      </c>
+      <c r="R10" s="28">
+        <v>5</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="33">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" s="3">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2</v>
+      </c>
+      <c r="R11" s="28">
+        <v>5</v>
+      </c>
+      <c r="T11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="33">
+        <v>2</v>
+      </c>
+      <c r="C12" s="33">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="28">
+        <v>4</v>
+      </c>
+      <c r="T12" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="33">
+        <v>2</v>
+      </c>
+      <c r="C13" s="33">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>2</v>
+      </c>
+      <c r="R13" s="28">
+        <v>4</v>
+      </c>
+      <c r="T13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="33">
+        <v>2</v>
+      </c>
+      <c r="C14" s="33">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" s="3">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2</v>
+      </c>
+      <c r="R14" s="28">
+        <v>4</v>
+      </c>
+      <c r="T14" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="33">
+        <v>2</v>
+      </c>
+      <c r="C15" s="33">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2</v>
+      </c>
+      <c r="R15" s="28">
+        <v>4</v>
+      </c>
+      <c r="T15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="33">
+        <v>2</v>
+      </c>
+      <c r="C16" s="33">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2</v>
+      </c>
+      <c r="R16" s="28">
+        <v>4</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="33">
+        <v>2</v>
+      </c>
+      <c r="C17" s="33">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2</v>
+      </c>
+      <c r="R17" s="28">
+        <v>4</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="33">
+        <v>2</v>
+      </c>
+      <c r="C18" s="33">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" s="3">
+        <v>2</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>2</v>
+      </c>
+      <c r="R18" s="28">
+        <v>4</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="33">
+        <v>2</v>
+      </c>
+      <c r="C19" s="33">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2</v>
+      </c>
+      <c r="R19" s="28">
+        <v>4</v>
+      </c>
+      <c r="T19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="33">
+        <v>2</v>
+      </c>
+      <c r="C20" s="33">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="28">
+        <v>4</v>
+      </c>
+      <c r="T20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="33">
+        <v>3</v>
+      </c>
+      <c r="C21" s="33">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="28">
+        <v>3</v>
+      </c>
+      <c r="T21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="33">
+        <v>3</v>
+      </c>
+      <c r="C22" s="33">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="28">
+        <v>3</v>
+      </c>
+      <c r="T22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="33">
+        <v>3</v>
+      </c>
+      <c r="C23" s="33">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="28">
+        <v>3</v>
+      </c>
+      <c r="T23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="33">
+        <v>3</v>
+      </c>
+      <c r="C24" s="33">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2</v>
+      </c>
+      <c r="R24" s="28">
+        <v>3</v>
+      </c>
+      <c r="T24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="33">
+        <v>3</v>
+      </c>
+      <c r="C25" s="33">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" s="3">
+        <v>2</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="28">
+        <v>3</v>
+      </c>
+      <c r="T25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="33">
+        <v>4</v>
+      </c>
+      <c r="C26" s="33">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2</v>
+      </c>
+      <c r="R26" s="28">
+        <v>2</v>
+      </c>
+      <c r="T26" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="33">
+        <v>4</v>
+      </c>
+      <c r="C27" s="33">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="28">
+        <v>2</v>
+      </c>
+      <c r="T27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="33">
+        <v>4</v>
+      </c>
+      <c r="C28" s="33">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="28">
+        <v>2</v>
+      </c>
+      <c r="T28" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="33">
+        <v>4</v>
+      </c>
+      <c r="C29" s="33">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O29" s="3">
+        <v>2</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="28">
+        <v>2</v>
+      </c>
+      <c r="T29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="33">
+        <v>4</v>
+      </c>
+      <c r="C30" s="33">
+        <v>21</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>2</v>
+      </c>
+      <c r="R30" s="28">
+        <v>2</v>
+      </c>
+      <c r="T30" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="33">
+        <v>4</v>
+      </c>
+      <c r="C31" s="33">
+        <v>21</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O31" s="3">
+        <v>2</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="28">
+        <v>2</v>
+      </c>
+      <c r="T31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="33">
+        <v>4</v>
+      </c>
+      <c r="C32" s="33">
+        <v>21</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>2</v>
+      </c>
+      <c r="R32" s="28">
+        <v>2</v>
+      </c>
+      <c r="T32" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="33">
+        <v>4</v>
+      </c>
+      <c r="C33" s="33">
+        <v>21</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="28">
+        <v>2</v>
+      </c>
+      <c r="T33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="33">
+        <v>5</v>
+      </c>
+      <c r="C34" s="33">
+        <v>29</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="28">
+        <v>1</v>
+      </c>
+      <c r="T34" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="33">
+        <v>5</v>
+      </c>
+      <c r="C35" s="33">
+        <v>29</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="28">
+        <v>1</v>
+      </c>
+      <c r="T35" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="33">
+        <v>6</v>
+      </c>
+      <c r="C36" s="33">
+        <v>31</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="28">
+        <v>0</v>
+      </c>
+      <c r="T36" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="33">
+        <v>6</v>
+      </c>
+      <c r="C37" s="33">
+        <v>31</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="28">
+        <v>0</v>
+      </c>
+      <c r="T37" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="33">
+        <v>6</v>
+      </c>
+      <c r="C38" s="33">
+        <v>31</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="28">
+        <v>0</v>
+      </c>
+      <c r="T38" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="33">
+        <v>6</v>
+      </c>
+      <c r="C39" s="33">
+        <v>31</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="28">
+        <v>0</v>
+      </c>
+      <c r="T39" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="33">
+        <v>6</v>
+      </c>
+      <c r="C40" s="33">
+        <v>31</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0</v>
+      </c>
+      <c r="R40" s="28">
+        <v>0</v>
+      </c>
+      <c r="T40" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="33">
+        <v>6</v>
+      </c>
+      <c r="C41" s="33">
+        <v>31</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="28">
+        <v>0</v>
+      </c>
+      <c r="T41" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="33">
+        <v>6</v>
+      </c>
+      <c r="C42" s="33">
+        <v>31</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="28">
+        <v>0</v>
+      </c>
+      <c r="T42" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="33">
+        <v>6</v>
+      </c>
+      <c r="C43" s="33">
+        <v>31</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="28">
+        <v>0</v>
+      </c>
+      <c r="T43" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="33">
+        <v>6</v>
+      </c>
+      <c r="C44" s="33">
+        <v>31</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="28">
+        <v>0</v>
+      </c>
+      <c r="T44" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="33">
+        <v>6</v>
+      </c>
+      <c r="C45" s="33">
+        <v>31</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="28">
+        <v>0</v>
+      </c>
+      <c r="T45" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" s="33">
+        <v>6</v>
+      </c>
+      <c r="C46" s="33">
+        <v>31</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="28">
+        <v>0</v>
+      </c>
+      <c r="T46" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" s="33">
+        <v>6</v>
+      </c>
+      <c r="C47" s="33">
+        <v>31</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="28">
+        <v>0</v>
+      </c>
+      <c r="T47" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" s="33">
+        <v>6</v>
+      </c>
+      <c r="C48" s="33">
+        <v>31</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="28">
+        <v>0</v>
+      </c>
+      <c r="T48" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B49" s="34">
+        <v>6</v>
+      </c>
+      <c r="C49" s="34">
+        <v>31</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0</v>
+      </c>
+      <c r="R49" s="29">
+        <v>0</v>
+      </c>
+      <c r="T49" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6:E49 R6:R49">
+    <cfRule type="expression" dxfId="36" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576">
+    <cfRule type="expression" dxfId="35" priority="1">
+      <formula>F1=INDIRECT(ADDRESS(5,COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFE4DC2-69BD-48AC-8405-57716A5CFA89}">
   <dimension ref="B1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2781,161 +7091,161 @@
   <sheetData>
     <row r="1" spans="2:24" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="40"/>
     </row>
     <row r="3" spans="2:24" ht="15" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="50" t="s">
+      <c r="D3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="50" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="50" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="50" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="50" t="s">
+      <c r="S3" s="54"/>
+      <c r="T3" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="U3" s="51"/>
-      <c r="V3" s="41" t="s">
+      <c r="U3" s="54"/>
+      <c r="V3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="57" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="39"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="56" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="60"/>
+      <c r="L4" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="56" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="56" t="s">
+      <c r="O4" s="60"/>
+      <c r="P4" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="56" t="s">
+      <c r="Q4" s="60"/>
+      <c r="R4" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="56" t="s">
+      <c r="S4" s="60"/>
+      <c r="T4" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="U4" s="57"/>
-      <c r="V4" s="42"/>
-      <c r="X4" s="55"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="45"/>
+      <c r="X4" s="58"/>
     </row>
     <row r="5" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B5" s="40"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="52" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="52" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="52" t="s">
+      <c r="K5" s="56"/>
+      <c r="L5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="52" t="s">
+      <c r="M5" s="56"/>
+      <c r="N5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="52" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="52" t="s">
+      <c r="Q5" s="56"/>
+      <c r="R5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="53"/>
-      <c r="T5" s="52" t="s">
+      <c r="S5" s="56"/>
+      <c r="T5" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="43"/>
-      <c r="X5" s="55"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="46"/>
+      <c r="X5" s="58"/>
     </row>
     <row r="6" spans="2:24">
       <c r="B6" s="32">
@@ -6245,21 +10555,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
     <mergeCell ref="B2:V2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -6276,65 +10571,45 @@
     <mergeCell ref="V3:V5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:E53 V6:V53">
-    <cfRule type="expression" dxfId="66" priority="11">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
-      <formula>$F$5</formula>
+  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576 R1:R1048576 T1:T1048576">
+    <cfRule type="expression" dxfId="31" priority="1">
+      <formula>F1=INDIRECT(ADDRESS(5,COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576 U1:U1048576">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
-      <formula>$H$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
-      <formula>$J$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
-      <formula>$L$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
-      <formula>$N$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
-      <formula>$R$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
-      <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C9A9AA-1894-4963-8294-DC0C53DFA6E3}">
   <dimension ref="B1:X63"/>
   <sheetViews>
@@ -6368,161 +10643,161 @@
   <sheetData>
     <row r="1" spans="2:24" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="40"/>
     </row>
     <row r="3" spans="2:24" ht="15" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="50" t="s">
+      <c r="D3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="50" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="50" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="50" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="50" t="s">
+      <c r="S3" s="54"/>
+      <c r="T3" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="U3" s="51"/>
-      <c r="V3" s="41" t="s">
+      <c r="U3" s="54"/>
+      <c r="V3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="57" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="39"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="56" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="60"/>
+      <c r="L4" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="56" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="56" t="s">
+      <c r="O4" s="60"/>
+      <c r="P4" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="56" t="s">
+      <c r="Q4" s="60"/>
+      <c r="R4" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="56" t="s">
+      <c r="S4" s="60"/>
+      <c r="T4" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="U4" s="57"/>
-      <c r="V4" s="42"/>
-      <c r="X4" s="55"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="45"/>
+      <c r="X4" s="58"/>
     </row>
     <row r="5" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B5" s="40"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="52" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="52" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="52" t="s">
+      <c r="K5" s="56"/>
+      <c r="L5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="52" t="s">
+      <c r="M5" s="56"/>
+      <c r="N5" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="52" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="52" t="s">
+      <c r="Q5" s="56"/>
+      <c r="R5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="S5" s="53"/>
-      <c r="T5" s="52" t="s">
+      <c r="S5" s="56"/>
+      <c r="T5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="43"/>
-      <c r="X5" s="55"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="46"/>
+      <c r="X5" s="58"/>
     </row>
     <row r="6" spans="2:24">
       <c r="B6" s="32">
@@ -10522,6 +14797,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="X3:X5"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:U4"/>
@@ -10538,80 +14828,30 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:E63 V6:V63">
-    <cfRule type="expression" dxfId="55" priority="12">
+    <cfRule type="expression" dxfId="28" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
-      <formula>$F$5</formula>
+  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576 R1:R1048576 T1:T1048576">
+    <cfRule type="expression" dxfId="27" priority="1">
+      <formula>F1=INDIRECT(ADDRESS(5,COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576 U1:U1048576">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
-      <formula>$H$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
-      <formula>$J$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
-      <formula>$L$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
-      <formula>$N$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
-      <formula>$R$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
-      <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630DD105-1DF1-4BF7-A6C6-C3E8FE06516E}">
   <dimension ref="B1:Z75"/>
   <sheetViews>
@@ -10652,175 +14892,175 @@
   <sheetData>
     <row r="1" spans="2:26" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="40"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="50" t="s">
+      <c r="D3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="50" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="50" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="50" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="50" t="s">
+      <c r="S3" s="54"/>
+      <c r="T3" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="U3" s="51"/>
-      <c r="V3" s="50" t="s">
+      <c r="U3" s="54"/>
+      <c r="V3" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="W3" s="51"/>
-      <c r="X3" s="41" t="s">
+      <c r="W3" s="54"/>
+      <c r="X3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="54" t="s">
+      <c r="Z3" s="57" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:26">
-      <c r="B4" s="39"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="56" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="60"/>
+      <c r="L4" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="56" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="56" t="s">
+      <c r="O4" s="60"/>
+      <c r="P4" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="56" t="s">
+      <c r="Q4" s="60"/>
+      <c r="R4" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="56" t="s">
+      <c r="S4" s="60"/>
+      <c r="T4" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="U4" s="57"/>
-      <c r="V4" s="56" t="s">
+      <c r="U4" s="60"/>
+      <c r="V4" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="W4" s="57"/>
-      <c r="X4" s="42"/>
-      <c r="Z4" s="55"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="45"/>
+      <c r="Z4" s="58"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B5" s="40"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="52" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="52" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="52" t="s">
+      <c r="K5" s="56"/>
+      <c r="L5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="52" t="s">
+      <c r="M5" s="56"/>
+      <c r="N5" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="52" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="52" t="s">
+      <c r="Q5" s="56"/>
+      <c r="R5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="53"/>
-      <c r="T5" s="52" t="s">
+      <c r="S5" s="56"/>
+      <c r="T5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="52" t="s">
+      <c r="U5" s="56"/>
+      <c r="V5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="W5" s="53"/>
-      <c r="X5" s="43"/>
-      <c r="Z5" s="55"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="46"/>
+      <c r="Z5" s="58"/>
     </row>
     <row r="6" spans="2:26">
       <c r="B6" s="32">
@@ -16062,6 +20302,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="V3:W3"/>
     <mergeCell ref="B2:X2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B3:B5"/>
@@ -16074,92 +20336,30 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="X3:X5"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:E75 X6:X75">
-    <cfRule type="expression" dxfId="44" priority="14">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
-      <formula>$F$5</formula>
+  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576 R1:R1048576 T1:T1048576 V1:V1048576">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>F1=INDIRECT(ADDRESS(5,COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576 U1:U1048576 W1:W1048576">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
-      <formula>$H$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
-      <formula>$J$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
-      <formula>$L$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
-      <formula>$N$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
-      <formula>$R$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
-      <formula>$T$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
-      <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A670207-E8A0-4871-A322-7DE98FE53318}">
   <dimension ref="B1:Z56"/>
   <sheetViews>
@@ -16201,177 +20401,177 @@
   <sheetData>
     <row r="1" spans="2:26" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="63"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1">
-      <c r="B3" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="50" t="s">
+      <c r="B3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="50" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="50" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="50" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="50" t="s">
+      <c r="S3" s="54"/>
+      <c r="T3" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="51"/>
-      <c r="V3" s="50" t="s">
+      <c r="U3" s="54"/>
+      <c r="V3" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="W3" s="51"/>
-      <c r="X3" s="63" t="s">
+      <c r="W3" s="54"/>
+      <c r="X3" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="54" t="s">
+      <c r="Z3" s="57" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:26" ht="15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="56" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="60"/>
+      <c r="L4" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="56" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="56" t="s">
+      <c r="O4" s="60"/>
+      <c r="P4" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="56" t="s">
+      <c r="Q4" s="60"/>
+      <c r="R4" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="56" t="s">
+      <c r="S4" s="60"/>
+      <c r="T4" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="U4" s="57"/>
-      <c r="V4" s="56" t="s">
+      <c r="U4" s="60"/>
+      <c r="V4" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="W4" s="57"/>
-      <c r="X4" s="64"/>
-      <c r="Z4" s="55"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="65"/>
+      <c r="Z4" s="58"/>
     </row>
     <row r="5" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="58" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="G5" s="70"/>
+      <c r="H5" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="58" t="s">
+      <c r="I5" s="70"/>
+      <c r="J5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="58" t="s">
+      <c r="K5" s="70"/>
+      <c r="L5" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="58" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="59"/>
-      <c r="P5" s="58" t="s">
+      <c r="O5" s="70"/>
+      <c r="P5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="58" t="s">
+      <c r="Q5" s="70"/>
+      <c r="R5" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="S5" s="59"/>
-      <c r="T5" s="58" t="s">
+      <c r="S5" s="70"/>
+      <c r="T5" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="59"/>
-      <c r="V5" s="58" t="s">
+      <c r="U5" s="70"/>
+      <c r="V5" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="W5" s="59"/>
-      <c r="X5" s="65"/>
-      <c r="Z5" s="55"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="66"/>
+      <c r="Z5" s="58"/>
     </row>
     <row r="6" spans="2:26">
       <c r="B6" s="14" t="s">
@@ -20192,6 +24392,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T5:U5"/>
     <mergeCell ref="B2:X2"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
@@ -20208,94 +24427,30 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:C194 X6:X194">
-    <cfRule type="expression" dxfId="32" priority="46">
+    <cfRule type="expression" dxfId="20" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
-      <formula>$D$5</formula>
+  <conditionalFormatting sqref="D1:D1048576 F1:F1048576 H1:H1048576 J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576 R1:R1048576 T1:T1048576 V1:V1048576">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>D1=INDIRECT(ADDRESS(5,COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576 U1:U1048576 W1:W1048576">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="36" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
-      <formula>$F$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
-      <formula>$H$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
-      <formula>$J$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
-      <formula>$L$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
-      <formula>$N$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
-      <formula>$R$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="21" priority="37" operator="equal">
-      <formula>$T$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="cellIs" dxfId="20" priority="36" operator="equal">
-      <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8B3406-738B-441F-9471-69FF55DF5805}">
   <dimension ref="B1:V58"/>
   <sheetViews>
@@ -20333,149 +24488,149 @@
   <sheetData>
     <row r="1" spans="2:22" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1">
-      <c r="B3" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="50" t="s">
+      <c r="B3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="50" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="50" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="50" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="50" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="63" t="s">
+      <c r="S3" s="54"/>
+      <c r="T3" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="57" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="56" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="60"/>
+      <c r="L4" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="56" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="56" t="s">
+      <c r="O4" s="60"/>
+      <c r="P4" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="56" t="s">
+      <c r="Q4" s="60"/>
+      <c r="R4" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="64"/>
-      <c r="V4" s="55"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="65"/>
+      <c r="V4" s="58"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="58" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="G5" s="70"/>
+      <c r="H5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="58" t="s">
+      <c r="I5" s="70"/>
+      <c r="J5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="58" t="s">
+      <c r="K5" s="70"/>
+      <c r="L5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="58" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="59"/>
-      <c r="P5" s="58" t="s">
+      <c r="O5" s="70"/>
+      <c r="P5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="58" t="s">
+      <c r="Q5" s="70"/>
+      <c r="R5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="59"/>
-      <c r="T5" s="65"/>
-      <c r="V5" s="55"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="66"/>
+      <c r="V5" s="58"/>
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="14" t="s">
@@ -23814,20 +27969,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:T2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="T3:T5"/>
     <mergeCell ref="V3:V5"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B3:B5"/>
@@ -23843,65 +27984,44 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="T3:T5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:C196 T6:T196">
-    <cfRule type="expression" dxfId="19" priority="12">
+  <conditionalFormatting sqref="B6:C58 T6:T58">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
-      <formula>$D$5</formula>
+  <conditionalFormatting sqref="D1:D1048576 F1:F1048576 H1:H1048576 J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576 R1:R1048576">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>D1=INDIRECT(ADDRESS(5,COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576 Q1:Q1048576 S1:S1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
-      <formula>$F$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
-      <formula>$H$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
-      <formula>$J$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
-      <formula>$L$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
-      <formula>$N$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>$R$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC27A121-25CC-49C9-A43F-B30E58ECE4CB}">
   <dimension ref="B1:R62"/>
   <sheetViews>
@@ -23935,121 +28055,121 @@
   <sheetData>
     <row r="1" spans="2:18" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
     </row>
     <row r="3" spans="2:18" ht="15">
-      <c r="B3" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50" t="s">
+      <c r="B3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="50" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="50" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="68" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="54" t="s">
+      <c r="R3" s="57" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="56" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="60"/>
+      <c r="L4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="56" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="68"/>
-      <c r="R4" s="55"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="71"/>
+      <c r="R4" s="58"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="58" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="G5" s="70"/>
+      <c r="H5" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="58" t="s">
+      <c r="I5" s="70"/>
+      <c r="J5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="58" t="s">
+      <c r="K5" s="70"/>
+      <c r="L5" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="58" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="59"/>
-      <c r="P5" s="69"/>
-      <c r="R5" s="55"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="72"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="14" t="s">
@@ -27014,6 +31134,13 @@
     <sortCondition descending="1" ref="P6:P62"/>
   </sortState>
   <mergeCells count="23">
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="P3:P5"/>
@@ -27030,55 +31157,23 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:C200 P6:P200">
-    <cfRule type="expression" dxfId="8" priority="9">
+  <conditionalFormatting sqref="B6:C62 P6:P62">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>$D$5</formula>
+  <conditionalFormatting sqref="D1:D1048576 F1:F1048576 H1:H1048576 J1:J1048576 L1:L1048576 N1:N1048576">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>D1=INDIRECT(ADDRESS(5,COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576 I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>$F$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>$H$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>$J$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>$L$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>$N$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
